--- a/biology/Botanique/Phlomis/Phlomis.xlsx
+++ b/biology/Botanique/Phlomis/Phlomis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre botanique Phlomis regroupe plus de 100 espèces de plantes vivaces appartenant à la famille des Lamiacées originaires surtout du bassin méditerranéen et d'Asie.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes herbacées ou des arbrisseaux, généralement très velus, à feuilles opposées simples, chaque paire de feuilles formant un angle droit par rapport à la précédente. Les fleurs, soit jaunes, roses, blanches, violacées ou pourprées, sont groupées en verticilles plus ou moins denses. Corolle à deux lèvres, la supérieure, légèrement échancrée au sommet, formant un casque, l'inférieure trilobée à lobes plus ou moins apparents. Quatre étamines. Le fruit est formé de quatre akènes inclus dans le calice persistant.
 </t>
@@ -542,7 +556,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Phlomis fruticosa L. - Phlomis ligneux, sauge de Jérusalem
 Phlomis herba-venti L. - Phlomis herbe au vent, herbe au vent
@@ -578,7 +594,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Phlomis agraria Bunge
